--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
@@ -31,9 +31,6 @@
     <t>Empresa en estudio:</t>
   </si>
   <si>
-    <t>Para cualquier pregunta contacte con el Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
     <t>Producto</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Por favor, reescriba el lote de la mercancía saliente o la linea que lo identifica en el cuadro inferior tantas veces como sea necesario para obtener todos los ingredientes que la forman.</t>
+  </si>
+  <si>
+    <t>Para cualquier pregunta contacte con FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
 </sst>
 </file>
@@ -1401,6 +1401,124 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="37" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,124 +1569,6 @@
     <xf numFmtId="49" fontId="6" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1998,181 +1998,181 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="2" customWidth="1"/>
-    <col min="15" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="4.3984375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.73046875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.1328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.265625" style="2" customWidth="1"/>
+    <col min="15" max="19" width="11.3984375" style="1"/>
+    <col min="20" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="12"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="15"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="B4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="77"/>
       <c r="L4" s="77"/>
       <c r="M4" s="78"/>
-      <c r="N4" s="70" t="s">
-        <v>22</v>
+      <c r="N4" s="71" t="s">
+        <v>21</v>
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="73"/>
+      <c r="B5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="74" t="s">
+      <c r="E5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="74"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="70"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2199,140 +2199,140 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="71" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="70" t="s">
-        <v>22</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
@@ -2340,68 +2340,68 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="58" t="s">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="73"/>
+      <c r="B15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58" t="s">
+      <c r="E15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="58" t="s">
+      <c r="F15" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="L15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="70"/>
+      <c r="M15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="71"/>
       <c r="O15" s="3"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="74"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="70"/>
+        <v>27</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2818,6 +2818,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A12:N12"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
@@ -2834,34 +2862,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F13 F3 F17:F1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="3405" windowWidth="25215" windowHeight="8400"/>
+    <workbookView xWindow="1455" yWindow="-240" windowWidth="28650" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Prod - Trazabilidadhaciaatrás" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Prod - Trazabilidadhaciaatrás'!$A$1:$N$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Prod - Trazabilidadhaciaatrás'!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>EAN</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Salida de mercancías</t>
   </si>
   <si>
-    <t>Incluya toda la información conocida acerca de las mercancías salientes en los espacios coloreados de gris en la parte superior.</t>
-  </si>
-  <si>
     <t>Por favor, haga el seguimiento de todos los ingredientes de los productos vendidos y siempre basados en el número de lote.</t>
   </si>
   <si>
@@ -108,26 +105,38 @@
     <t>Fecha de recepción</t>
   </si>
   <si>
-    <t>En la columna A introduzca a partir de la línea 17 el número de linea de la mercancía de salida a la que esta asociado el ingrediente o su número de lote y rellene los campos de la B a la M con la información del ingrediente.</t>
-  </si>
-  <si>
     <t>Por favor, reescriba el lote de la mercancía saliente o la linea que lo identifica en el cuadro inferior tantas veces como sea necesario para obtener todos los ingredientes que la forman.</t>
   </si>
   <si>
     <t>Para cualquier pregunta contacte con FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluya toda la información conocida sobre la tabla de mercancías de salida en la tabla de entrada de mercancias. </t>
+  </si>
+  <si>
+    <t>En caso de poseer los datos requeridos en otro formato digital tales como en archivos Excel o XML, no será necesario rellenar este formulario. Por favor, contacte con nosotros (BfR FoodRiskLabs-Team, +49 (30) 18412-4444).</t>
+  </si>
+  <si>
+    <t>En la columna A introduzca a partir de la línea 18 el número de linea de la mercancía de salida a la que esta asociado el ingrediente o su número de lote y rellene los campos desde la columna B en adelante con la información del ingrediente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1117,425 +1126,417 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="36" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1549,24 +1550,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="31" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1992,7 +2005,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2018,45 +2031,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="12"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
@@ -2064,22 +2077,22 @@
       <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="15"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2087,77 +2100,77 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="76" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="71" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="73"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="46" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="74"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2167,12 +2180,12 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="71"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="72"/>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2199,182 +2212,160 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="68" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+    </row>
+    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="44"/>
+    </row>
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
-    </row>
-    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="71" t="s">
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="73"/>
-      <c r="B15" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="71"/>
       <c r="O15" s="3"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -2383,66 +2374,90 @@
     </row>
     <row r="16" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="74"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="B16" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="71"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="72"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
+    <row r="17" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="75"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -2459,8 +2474,8 @@
       <c r="N19" s="36"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
       <c r="D20" s="31"/>
@@ -2476,7 +2491,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -2493,7 +2508,7 @@
       <c r="N21" s="36"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -2510,7 +2525,7 @@
       <c r="N22" s="36"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -2527,10 +2542,10 @@
       <c r="N23" s="36"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
@@ -2544,7 +2559,7 @@
       <c r="N24" s="36"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -2561,7 +2576,7 @@
       <c r="N25" s="36"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -2578,7 +2593,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -2595,7 +2610,7 @@
       <c r="N27" s="36"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2612,7 +2627,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -2629,7 +2644,7 @@
       <c r="N29" s="36"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2646,7 +2661,7 @@
       <c r="N30" s="36"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2663,7 +2678,7 @@
       <c r="N31" s="36"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2799,80 +2814,98 @@
       <c r="N39" s="36"/>
       <c r="O39" s="15"/>
     </row>
-    <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="22"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="15"/>
     </row>
+    <row r="41" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="J4:M4"/>
+  <mergeCells count="45">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="A11:N11"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A12:N12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A14:N14"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F13 F3 F17:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F14 F3 F18:F1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G13 G3 G17:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G14 G3 G18:G1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H13 H3 H17:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H14 H3 H18:H1048576">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_tob_es.xlsx
@@ -102,9 +102,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Fecha de recepción</t>
-  </si>
-  <si>
     <t>Por favor, reescriba el lote de la mercancía saliente o la linea que lo identifica en el cuadro inferior tantas veces como sea necesario para obtener todos los ingredientes que la forman.</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>En la columna A introduzca a partir de la línea 18 el número de linea de la mercancía de salida a la que esta asociado el ingrediente o su número de lote y rellene los campos desde la columna B en adelante con la información del ingrediente.</t>
+  </si>
+  <si>
+    <t>Fecha de recepción de producto</t>
   </si>
 </sst>
 </file>
@@ -1414,33 +1414,66 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,32 +1486,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1493,18 +1510,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1518,6 +1523,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,56 +1540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="31" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="31" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="31" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="30" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2008,45 +2008,45 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.86328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.73046875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.1328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.86328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.265625" style="2" customWidth="1"/>
-    <col min="15" max="19" width="11.3984375" style="1"/>
-    <col min="20" max="16384" width="11.3984375" style="2"/>
+    <col min="6" max="6" width="4.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" customWidth="1"/>
+    <col min="15" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -2054,123 +2054,123 @@
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
+      <c r="A2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="12"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
       <c r="O3" s="15"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="77" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="47" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="84" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="72"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2180,11 +2180,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="64"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="72"/>
       <c r="O6" s="15"/>
     </row>
@@ -2212,157 +2212,157 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="71"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="66" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71"/>
+    </row>
+    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="68"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
-    </row>
-    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-    </row>
-    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-    </row>
-    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="54" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="15"/>
       <c r="P14" s="44"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="76" t="s">
+      <c r="C15" s="93"/>
+      <c r="D15" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="77"/>
+      <c r="F15" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="60" t="s">
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="72" t="s">
         <v>21</v>
       </c>
@@ -2372,38 +2372,38 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51" t="s">
+      <c r="F16" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="60" t="s">
         <v>14</v>
       </c>
       <c r="N16" s="72"/>
@@ -2413,12 +2413,12 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2428,11 +2428,11 @@
       <c r="H17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="72"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
@@ -2831,7 +2831,7 @@
       <c r="N40" s="36"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -2850,11 +2850,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="A3:N3"/>
@@ -2871,30 +2890,11 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F14 F3 F18:F1048576">
